--- a/biology/Botanique/Boulingrin_(jardin)/Boulingrin_(jardin).xlsx
+++ b/biology/Botanique/Boulingrin_(jardin)/Boulingrin_(jardin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un boulingrin désigne un ornement végétal qui se présente sous la forme d'un parterre gazonné en creux, parfois entouré d'une bordure.
 </t>
@@ -511,7 +523,9 @@
           <t>Parcs et jardins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot s'applique particulièrement aux parcs de châteaux et aux jardins publics.
 Entré dans la langue française sous Louis XIV, il trouve son étymologie dans le mot composé anglais bowling green, signifiant « pelouse (green) du jeu de boules (bowling) ».
@@ -544,9 +558,11 @@
           <t>Jeu de boules canadien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada, le mot boulingrin est utilisé pour désigner le jeu appelé en anglais lawn bowling[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, le mot boulingrin est utilisé pour désigner le jeu appelé en anglais lawn bowling,.
 </t>
         </is>
       </c>
